--- a/30_請求書.xlsx
+++ b/30_請求書.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="請求書" sheetId="1" r:id="rId1"/>
+    <sheet name="商品リスト" sheetId="2" r:id="rId2"/>
+    <sheet name="見積書" sheetId="3" r:id="rId3"/>
+    <sheet name="納品書" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="40">
   <si>
     <t>請　求　書</t>
     <rPh sb="0" eb="1">
@@ -228,6 +230,117 @@
   </si>
   <si>
     <t>レターケース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←TODAY（）</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←[Ctrl]＋[；]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見　積　書</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積番号：</t>
+    <rPh sb="0" eb="2">
+      <t>ミツモリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、御見積もり申し上げます。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツモ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納品場所：</t>
+    <rPh sb="0" eb="4">
+      <t>ノウヒンバショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効期限：</t>
+    <rPh sb="0" eb="4">
+      <t>ユウコウキゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行日から３０日</t>
+    <rPh sb="0" eb="3">
+      <t>ハッコウビ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>納　品　書</t>
+    <rPh sb="0" eb="1">
+      <t>オサメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>下記のとおり、納品いたしました。</t>
+    <rPh sb="0" eb="2">
+      <t>カキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ノウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>適用：</t>
+    <rPh sb="0" eb="2">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>毎度ありがとうございます。</t>
+    <rPh sb="0" eb="2">
+      <t>マイド</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -235,7 +348,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="177" formatCode="#,##0&quot;円&quot;"/>
+    <numFmt numFmtId="179" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,8 +389,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -292,8 +416,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -358,6 +506,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -365,43 +535,114 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="38" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="38" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="桁区切り" xfId="1" builtinId="6"/>
@@ -411,6 +652,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFF66"/>
+      <color rgb="FFFFCC00"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFF6600"/>
       <color rgb="FF99FF66"/>
       <color rgb="FF00CC00"/>
     </mruColors>
@@ -725,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -736,163 +981,268 @@
     <col min="1" max="1" width="12.21875" customWidth="1"/>
     <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="41"/>
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E3" s="42"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="D4" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="B6" s="27"/>
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="4" t="s">
+      <c r="F6" s="24">
+        <v>44963</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="23">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="4" t="s">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="43"/>
+      <c r="E11" s="17">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="43"/>
+      <c r="B12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="43"/>
+      <c r="E12" s="17">
+        <f t="shared" ref="E12:E17" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="43"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="43"/>
+      <c r="B16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="11" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="18">
+        <f>IFERROR(SUM(E11:E16),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C19" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="4">
         <v>0.08</v>
       </c>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17" t="s">
+      <c r="E19" s="19">
+        <f>ROUNDDOWN(E18*D19, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="14"/>
+      <c r="B20" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="8"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="18">
+        <f>E18+E19</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:B4"/>
     <mergeCell ref="A7:B8"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -933,7 +1283,7 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="6">
         <v>15900</v>
       </c>
     </row>
@@ -944,7 +1294,7 @@
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="6">
         <v>19900</v>
       </c>
     </row>
@@ -955,7 +1305,7 @@
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="6">
         <v>49400</v>
       </c>
     </row>
@@ -966,7 +1316,7 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="6">
         <v>9800</v>
       </c>
     </row>
@@ -977,7 +1327,7 @@
       <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="6">
         <v>14000</v>
       </c>
     </row>
@@ -988,7 +1338,7 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="6">
         <v>25400</v>
       </c>
     </row>
@@ -999,7 +1349,7 @@
       <c r="B8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="6">
         <v>12300</v>
       </c>
     </row>
@@ -1010,7 +1360,7 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="6">
         <v>26700</v>
       </c>
     </row>
@@ -1021,7 +1371,7 @@
       <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="6">
         <v>3500</v>
       </c>
     </row>
@@ -1032,4 +1382,554 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" activeCellId="3" sqref="C10:C17 A10:A17 A3:B4 E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.21875" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44963</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="31">
+        <f>E20</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="17">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="17">
+        <f t="shared" ref="E12:E17" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="18">
+        <f>IFERROR(SUM(E11:E16),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E19" s="19">
+        <f>ROUNDDOWN(E18*D19, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="18">
+        <f>E18+E19</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="D4" s="25">
+        <f ca="1">TODAY()</f>
+        <v>44963</v>
+      </c>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="7.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="24">
+        <v>44963</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C7" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C11" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A11,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="17">
+        <f>IFERROR(C11*D11,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C12" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A12,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="17">
+        <f t="shared" ref="E12:E17" si="0">IFERROR(C12*D12,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A13,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A14,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A15,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A16,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="B17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],2,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>IFERROR(VLOOKUP(A17,テーブル1[],3,FALSE),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="39"/>
+      <c r="E18" s="18">
+        <f>IFERROR(SUM(E11:E16),"")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E19" s="19">
+        <f>ROUNDDOWN(E18*D19, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="18">
+        <f>E18+E19</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>